--- a/MEDIA/_ 2281   _009_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281   _009_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281   _009_2020-10-01~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281   _009_2020-10-10~2020-11-19)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>8781145</v>
+        <v>8379740</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
+          <t>暫收-周和泰 代尋2萬                   </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-60000</v>
+        <v>-20000</v>
       </c>
       <c r="G4" t="n">
-        <v>8841145</v>
+        <v>8399740</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109528</t>
+          <t>109982</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201013</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖頂-楊梅梅獅教育訓練費                  </t>
+          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-261480</v>
       </c>
       <c r="G5" t="n">
-        <v>8801145</v>
+        <v>8661220</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>109982</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201019</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖台中文華設備款                      </t>
+          <t>暫收-羅東成功 工程款分期$10000           </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23500</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="G6" t="n">
-        <v>8777645</v>
+        <v>8671220</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110652</t>
+          <t>110266</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖鳳山光復設備款                      </t>
+          <t>暫收-羅東國中 工程款30萬                </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-300000</v>
       </c>
       <c r="G7" t="n">
-        <v>8677645</v>
+        <v>8971220</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110659</t>
+          <t>110378</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖屏東瑞光設備款                      </t>
+          <t>暫收-北市成都-王岡元 工程款$323400        </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-323400</v>
       </c>
       <c r="G8" t="n">
-        <v>8617645</v>
+        <v>9294620</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110657</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>沖屏東自由設備款                      </t>
+          <t>暫收-竹東長春-彭立蓁匯/卓定暟 工程款588萬      </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-588000</v>
       </c>
       <c r="G9" t="n">
-        <v>8367645</v>
+        <v>9882620</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110655</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20201023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>沖彰化旭光設備款                      </t>
+          <t>暫收-樹林保安 工程款$835250            </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>950545</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-835250</v>
       </c>
       <c r="G10" t="n">
-        <v>7417100</v>
+        <v>10717870</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110684</t>
+          <t>110505</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20201023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-暫收款6萬           </t>
+          <t>暫收-永和永利-吳珮瑜 工程款14萬            </t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-60000</v>
+        <v>-140000</v>
       </c>
       <c r="G11" t="n">
-        <v>7477100</v>
+        <v>10857870</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>110505</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201007</t>
+          <t>20201023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,21 +770,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>暫收-花蓮東華-林弘銘 工程款$232,640       </t>
+          <t>暫收-泰山仁武-黃依凡 工程款20萬            </t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-232640</v>
+        <v>-200000</v>
       </c>
       <c r="G12" t="n">
-        <v>7709740</v>
+        <v>11057870</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109765</t>
+          <t>110505</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201027</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>頂-三重三民-蔣奇勳 工程款15萬元            </t>
+          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-150000</v>
+        <v>-60000</v>
       </c>
       <c r="G13" t="n">
-        <v>7859740</v>
+        <v>11117870</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>110649</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>暫收-中壢三光-徐任賢/徐金發 工程款34萬        </t>
+          <t>沖竹東長春 設備款                     </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1548000</v>
       </c>
       <c r="F14" t="n">
-        <v>-340000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8199740</v>
+        <v>9569870</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109830</t>
+          <t>111037</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201009</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>暫收-楊梅校前-謝承宏 工程款18萬            </t>
+          <t>沖大溪仁中設備款                      </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F15" t="n">
-        <v>-180000</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8379740</v>
+        <v>9519870</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109882</t>
+          <t>111035</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>沖羅東成功設備款                      </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F16" t="n">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8399740</v>
+        <v>9509870</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110742</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
+          <t>沖大甲日南 設備款                     </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>871480</v>
       </c>
       <c r="F17" t="n">
-        <v>-261480</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8661220</v>
+        <v>8638390</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>110737</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201019</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>暫收-羅東成功 工程款分期$10000           </t>
+          <t>沖高雄延慶設備款                      </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="F18" t="n">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>8671220</v>
+        <v>8458390</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110266</t>
+          <t>111038</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,21 +1057,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>暫收-羅東國中 工程款30萬                </t>
+          <t>沖花蓮東華設備款                      </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>992640</v>
       </c>
       <c r="F19" t="n">
-        <v>-300000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8971220</v>
+        <v>7465750</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110378</t>
+          <t>110821</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1098,21 +1098,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>暫收-竹東長春-彭立蓁匯/卓定暟 工程款588萬      </t>
+          <t>沖羅東成功設備款                      </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>320000</v>
       </c>
       <c r="F20" t="n">
-        <v>-588000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>9559220</v>
+        <v>7145750</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>110741</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201022</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>暫收-北市成都-王岡元 工程款$323400        </t>
+          <t>沖樹林保安設備款                      </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>835250</v>
       </c>
       <c r="F21" t="n">
-        <v>-323400</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9882620</v>
+        <v>6310500</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110438</t>
+          <t>110899</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,21 +1180,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>暫收-永和永利-吳珮瑜 工程款14萬            </t>
+          <t>沖虎尾林森教育訓練費                    </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F22" t="n">
-        <v>-140000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10022620</v>
+        <v>6250500</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>110899</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1221,21 +1221,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>暫收-樹林保安 工程款$835250            </t>
+          <t>沖北市景福設備款                      </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1176600</v>
       </c>
       <c r="F23" t="n">
-        <v>-835250</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>10857870</v>
+        <v>5073900</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>110819</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1247,7 +1247,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201023</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1262,21 +1262,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>暫收-泰山仁武-黃依凡 工程款20萬            </t>
+          <t>沖觀音新坡設備款                      </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F24" t="n">
-        <v>-200000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>11057870</v>
+        <v>4873900</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110505</t>
+          <t>110839</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1303,21 +1303,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>頂-新竹新莊-何武亮 暫收款6萬              </t>
+          <t>沖中壢三光設備款                      </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1120500</v>
       </c>
       <c r="F25" t="n">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11117870</v>
+        <v>3753400</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110649</t>
+          <t>110902</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1344,24 +1344,434 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>沖大甲日南 設備款                     </t>
+          <t>沖楊梅校前設備款                      </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>871480</v>
+        <v>940000</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>10246390</v>
+        <v>2813400</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110737</t>
+          <t>110788</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沖北市成都 設備款                     </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>883400</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1930000</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>110805</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201101</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沖永和永利設備款                      </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>700000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>111615</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201105</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>暫收-黃偉明 代尋2萬                   </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111031</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201110</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>暫收-新莊中原東-葉姿秀 暫收款6萬            </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-60000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>111215</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>暫收-北市延平北-黃偉明 暫收款4萬            </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>111472</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>暫收-說明會客戶-台中東門-李崇岳 暫收款＋保證金     </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-110000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1460000</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>111472</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>暫收-清水西寧 許哲原/陳素琴匯 暫收款4萬        </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>暫收-竹北遠百勝利 工程款$29500           </t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-29500</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1529500</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20201118</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>暫收-板橋三民 工程款$26000             </t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-26000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1555500</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>111612</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20201118</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2281  .009     </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>暫收-馮小姐 代尋2萬元                  </t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-20000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1575500</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>111612</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
